--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/57.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/57.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-8.043423207176069</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.033199555611041</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.144272344631645</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.81984961367375</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.480015119815186</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-14.01797985997143</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-8.664349076655448</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7.81604826560071</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.690343854826637</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-14.419831663424</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.385739482227949</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-14.07318486211155</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-9.41448463944829</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.553709533797393</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.141956487018807</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-15.13828312168892</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-7.249770410857895</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-14.16180982147061</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-10.21979253155851</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.272075837694732</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.5532353316252502</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-15.84274612374414</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-7.096434420419132</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-14.32321877978331</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-11.05226618100492</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.980941685032571</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-0.05534537835951794</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-16.54755781829795</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.964525179163307</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-14.44265498647637</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-11.86701972683662</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.696004638254037</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-0.6509717885343091</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-17.27690025655132</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.796955235883054</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-14.59389725943797</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-12.64065112675894</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.425448900857418</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-1.216535812025416</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-17.91949524671375</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.662579768590411</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-14.64422913854428</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-13.36685191519494</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.171480680548577</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-1.747425638642487</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-18.59603567803768</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.512709718547588</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-14.61488777342972</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-14.03604982258421</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.937447608317852</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-2.236643450966168</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-19.17699813695572</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-6.401984919469639</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-14.60039751560433</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-14.64745677744544</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.723625289913359</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-2.683613128536765</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-19.80369365487722</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.293519672806543</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-14.36431920265336</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-15.21500921873696</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.525139849327187</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-3.098522919260441</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-20.5176347530305</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-6.199081705362973</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-14.07275945700975</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-15.73831102141117</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.342129820109504</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-3.481083235517374</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-21.23405292646597</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-6.082353077159593</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-13.64295960601002</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-16.22594766170959</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.17159267436956</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-3.837570498465277</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-21.99867217723909</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.924620719099571</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-13.1992091161078</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-16.69562226514415</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.007337243835767</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-4.180926596054789</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-22.89055513304976</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.726155444894445</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-12.63543976349762</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-17.14545597485449</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.850020605642491</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-4.509777988062993</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-23.7907387817165</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.536888334646193</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-12.04663275497392</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-17.58087599138305</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.697744749645746</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-4.828092234978492</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-24.5947874556744</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-5.295977366348417</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-11.59293573099896</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-18.01154522510354</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.547130345790128</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-5.142933417279592</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-25.44487259639428</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-5.061435271389581</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-11.09384119604398</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-18.42553154227607</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.402350320928199</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-5.445578536433065</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-26.34745633628508</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.815486534574792</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-10.66458592978546</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-18.82196440141403</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.263709122363751</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-5.735391182197786</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-27.14210842667707</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-4.557005932851132</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-10.3655873883151</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-19.20375487897736</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.130188683303849</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-6.014499499987099</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-27.85347282311998</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-4.354137956201085</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-10.16214774383581</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-19.55307287689971</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.00802457708572</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-6.269868778435021</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-28.54438210247025</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-4.149656183223205</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-10.00523119581989</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-19.8668312094959</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.898296459731097</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-6.49924212729959</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-29.08068927919865</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-4.030631973295396</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-9.98312337270864</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-20.1454981538321</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.80084056455865</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-6.702961881007337</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-29.48427141123624</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.920950836415722</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-9.953278804672111</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-20.37109356561828</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.721944939335537</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-6.86788363674752</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-29.74761349596729</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.853271955972374</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-9.972513074255277</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-20.54466223197449</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.661244199267763</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-6.994771187209228</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-29.91713918468144</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.836676301684484</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-10.00025213532883</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-20.66972329312618</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.617507624430061</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-7.0861972034414</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-29.97110500943084</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.844012819337757</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-10.09573488977249</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-20.73205367776538</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.59570933240111</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-7.13176389466649</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-29.8836420624467</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.885405348996641</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-10.12619852982486</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-20.73819030708487</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.59356321957421</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-7.136250083785695</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-29.81540248762511</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.940185736611691</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-10.10387221070802</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-20.69577364178513</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3.608397250560063</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-7.105241337382168</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-29.5481840291435</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-3.998268942913391</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-10.07629867691143</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-20.59666292288327</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.643058425945519</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-7.032786345303428</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-29.30446382228768</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-4.05799128483757</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-9.996507908323913</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-20.45485876687238</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.692650425442028</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-6.929120272507867</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-28.98387503338867</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-4.114172460334826</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-9.949269734024053</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-20.28369580769631</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.752509837352555</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-6.803991416732391</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-28.61086462937686</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-4.14310518370399</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-9.894215361705973</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-20.07997051915148</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.823757004510095</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-6.655057836880443</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-28.29181099316644</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-4.199752760593343</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-9.738033754799776</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-19.86134852132522</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.900213875106278</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-6.495234002523801</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-27.91957042973594</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-4.197260007482442</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-9.586625954561208</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-19.64046745139596</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.977460792381954</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-6.333758671203543</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-27.52675248041458</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-4.220337770082225</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-9.453207658783041</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-19.41249690520232</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.057187053798338</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-6.167100571033764</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-27.14364357936567</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-4.233757302156701</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-9.325079614776628</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-19.19266678306689</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.134066431758324</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-6.006393536169433</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-26.71441669902264</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-4.247008169551183</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-9.188993019293807</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-18.98900956180524</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.20528979430556</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-5.857509716974238</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-26.28737254315131</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-4.284790641575822</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-9.107659536484993</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-18.79304901830654</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.273821461133272</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-5.714252561903028</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-25.9018997786704</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-4.299991842805168</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-8.956447058433243</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-18.6152199637454</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.336012151676811</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-5.584250450301407</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-25.48340991019956</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-4.30341185572956</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-8.872163879548937</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-18.4571713355491</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.39128519663138</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-5.46870883955639</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-25.01977115587224</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-4.372928626887774</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-8.827838985323636</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-18.3053427855541</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.444382944868955</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-5.357714423320677</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-24.62414555266613</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-4.384617168396675</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-8.779405704084098</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-18.1663258536329</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.493000191441848</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-5.256085953536955</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-24.23514963540725</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-4.426132435264004</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-8.737103553183291</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-18.0384389527394</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.53772502393712</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-5.162594104281099</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-23.77614350998978</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-4.479722667883602</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-8.664827722969921</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-17.90753180970811</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.583506100838692</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-5.066894303931816</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-23.29036051776496</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-4.560795741106778</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-8.610700303402838</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-17.7795328662658</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.628270117051709</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-4.973320545856444</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-22.8934714703107</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.612081681619411</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-8.539722207040864</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-17.65233462510993</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.672754110249164</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-4.880332142003737</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-22.43761263432857</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.667816252048515</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-8.522050514952234</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-17.51418571814421</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.721067789603955</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-4.77933824274852</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-22.00704079720526</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.732372856279572</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-8.518054686486334</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-17.37480425364613</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>4.769812521152451</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-4.677443281052891</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-21.52385262058683</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.817557230059229</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-8.507540393853608</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-17.23583082980074</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.81841455200435</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-4.57584661789234</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-21.08152939341362</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.855766510828079</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-8.499280582733126</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-17.09017228260657</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.86935451598228</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-4.469362788493384</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-20.67930127510433</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.891091863124914</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-8.500343267851234</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-16.9499297237205</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.918400390978588</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-4.36683832286769</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-20.28152464674457</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.945184922372664</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-8.58784098645417</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-16.81612157602048</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>4.965196012348521</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-4.269017740098276</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-19.81880064416681</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-5.000916325389936</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-8.621932984417585</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-16.67942073294456</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.013003272246269</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-4.169082449425733</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-19.46487322962332</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-5.03648477654479</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-8.72166316878813</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-16.54865074787821</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.058736382022478</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-4.073482918546529</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-19.05065371214171</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-5.07905241599293</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-8.851241231740744</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-16.42181061329444</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.103095137558053</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-3.980756308868389</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-18.69878222479771</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-5.096869899394581</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-9.034248189151654</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-16.28910719070391</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.14950441251463</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-3.883743336516337</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-18.32672280032752</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-5.137817407691226</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-9.199613249383789</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-16.15798820222036</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.195359576381334</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-3.787888666333243</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-18.02442904641949</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-5.152583089793826</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-9.390347020083359</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-16.02535715261861</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.241743540928652</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-3.690928602328412</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-17.71497124663133</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-5.185901886695798</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-9.617271674618243</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-15.88227402644037</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.291782824127415</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-3.586327537088326</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-17.42057515139268</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-5.188786607020771</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-9.800146210207583</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-15.73749165789158</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>5.342416369364435</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-3.480484238981182</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-17.21549867748132</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5.212598417312361</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-10.02359810247177</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-15.58920537308331</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>5.394275310374502</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-3.372079399320933</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-16.92760999939169</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-5.223812638899587</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-10.24147172550228</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-15.43186614689471</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>5.449300262007987</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-3.257056397636746</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-16.78638953746249</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.264599401045815</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-10.44084602005935</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-15.27882388350215</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>5.502822472235206</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-3.145174694984591</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-16.64596155848463</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.28302344381308</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-10.64287206159338</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-15.13278459157976</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>5.553895590930892</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-3.038412521763966</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-16.47410596989354</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.294594791084238</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-10.80751873344349</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-14.99254130526063</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>5.602941720326376</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-2.935887524347587</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-16.44315385005111</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.347443057482453</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-10.94740252465986</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-14.87333946420308</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>5.644629198380652</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-2.848744896937653</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-16.32732454188292</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.358970060987978</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-11.11389648092088</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-14.77783211059613</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>5.678030198501021</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-2.778924148730748</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-16.37608714999752</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.407980216100126</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-11.16433926330276</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-14.70448666511733</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>5.703680697030673</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-2.725304886050998</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-16.39132546503333</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.430996214169207</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-11.23918738740014</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-14.66951210593924</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>5.715912061540307</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-2.699736698913593</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-16.4241342592189</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.484036108983189</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-11.30353115050141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-14.67583250124295</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>5.713701681749357</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-2.704357230342874</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-16.5133995388581</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.53310723677308</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-11.27246830170643</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-14.721159105441</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>5.697849981800622</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-2.73749329054417</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-16.7210436575318</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.606588023837641</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-11.35441423544001</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-14.81995997191329</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>5.66329716855323</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-2.809721764688425</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-16.88470270816901</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.64974242632745</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-11.23777047390933</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-14.97167782104318</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>5.610238134817413</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-2.920635252943856</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-17.07741644803943</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.707427330591416</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-11.24260387039667</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-15.17171284707055</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.540281532774861</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-3.066871062620856</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-17.3758383566709</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.783254377969699</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-11.1677060881162</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-15.43666674369682</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.447621388829014</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-3.260565878822276</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-17.65423082476644</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.822506529083866</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-11.0766793279684</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-15.76725194044169</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.332008550871953</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-3.502240523874686</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-18.07541060679784</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.904384124912085</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-10.94253602271713</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-16.15869144332376</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.195113637662564</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-3.788402771458708</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-18.47205058818167</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.977003375958645</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-10.84802325811647</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-16.62812787842272</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.030941499779079</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-4.131584755843716</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-18.92437721443783</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.043670268322027</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-10.71249283428425</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-17.17521457486579</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.839613375570447</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-4.531533042934791</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-19.53108857656348</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.109651416024023</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-10.58864863620565</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-17.79367484909807</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.623324357877744</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-4.983659056821175</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-20.13054532332884</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.169540047069323</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-10.54549898564679</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-18.50359162131132</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.375051012437436</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.502644436779978</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-20.82291277130958</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.238588833129525</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-10.44905617299675</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-19.3045855860638</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.09492599061747</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-6.088211891181389</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-21.69329906100584</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.312938678815183</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-10.37998826141093</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-20.18865550107456</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.785747500977674</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.734512103700085</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-22.598454974133</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.38669780219438</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-10.27618279548154</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-21.1783230947613</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.439639204941166</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.458009606852665</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-23.56235425208766</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.424460873821555</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-10.22742177023362</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.27051369957789</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.057676380664017</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.256456661795479</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-24.71364178447972</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.45794239650634</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-10.23375815439578</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-23.45256352838433</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.644287830116061</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.120595394031366</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-25.88156240190195</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.502286953991602</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-10.27856638826982</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-24.74738394076086</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.191460952223174</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.06717517633547</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-27.20632218810584</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.513681718053189</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-10.28636934410588</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-26.14802743627485</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.701625439087828</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-11.09111703143479</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-28.60311641034973</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.570952879146747</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-10.3213386366372</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-27.63769337481198</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.180656840196923</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-12.18013883424853</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-30.18511616255934</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.548848303832</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-10.48243309312368</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-29.24224505522858</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.6195101970672774</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-13.35314797576857</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-31.90025305059445</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.520406529296623</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-10.55502673570882</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-30.95092686880968</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.0219469801450479</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-14.60228155728045</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-33.68454200096369</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.523522866611729</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-10.71702828167305</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-32.74427883680146</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.605227232484392</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-15.91331334148023</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-35.54169636235334</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.472156157097409</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-10.93389549885963</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-34.6425858330665</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.269106502678468</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-17.30107260608193</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-37.60558461914117</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.427145651274704</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-11.17483038211671</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-36.6403607230025</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-1.967771860048087</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-18.76154797574139</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-39.72003555246164</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.34730113791543</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-11.41169329436048</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-38.68937125216802</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-2.684355435517593</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-20.25947921168509</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-41.86961612289662</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.257011688117354</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-11.76220723496744</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-40.85082119177857</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.440261519882744</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-21.83960939324637</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-44.18320217223038</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.111976692234367</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-12.05883873637721</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-43.02856104837198</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.201864542740657</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-23.4316483352226</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-46.47528249850172</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-5.977737423650452</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-12.40540650670136</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-45.29464199981982</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-4.994362369071082</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.08826912464</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-48.82638242651503</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.798566438613125</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-12.77205273572118</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-47.49272454655591</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-5.763079673397845</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-26.69517961098076</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-51.0536580254996</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.59264190954628</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-13.09472167779733</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-49.86144446070964</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.591472578758549</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-28.42683471870624</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-53.40894905620701</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.332374095697046</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-13.43609520217035</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-34.97547248467462</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-1.385524209488674</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-17.54442973205803</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-35.49954574615853</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-1.568804034641672</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-17.92755402406416</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-36.0545437437645</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-1.762898913043724</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-18.33328587593453</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-36.54762659964884</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-1.935340718902191</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-18.69375460033795</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-36.96002563354201</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.07956563625666</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-18.99523933443211</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-37.25381672738206</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-2.182310775663405</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-19.21001561305099</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-37.41388926430009</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.238291625545085</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-19.32703680433004</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-37.42911232132389</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2.243615459891675</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-19.33816563568446</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-37.30067059131135</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.198696591578508</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-19.24426817803557</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-37.04016572646822</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.107592370873249</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-19.0538258310542</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-36.66810329341532</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-1.977474040693899</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-18.78182921012023</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-36.20358474729721</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-1.815021795616965</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-18.44224245348758</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-35.6701433851221</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-1.628465741770601</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-18.05226960192205</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-35.08647038479016</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-1.424342590849943</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-17.62557486007988</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-34.46663355875936</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-1.207572163034858</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-17.17244251659803</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-33.82888237778471</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-0.9845366954187744</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-16.70621386567403</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-33.19043811461679</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-0.7612588418758813</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-16.23947853630617</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-32.56620427583677</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-0.5429506830084821</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-15.78313175217204</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-31.97302868429696</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-0.3355042691338074</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-15.34949013134117</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-31.41864748858276</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-0.1416250997770112</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-14.94420919312251</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-30.90403037257065</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.03834770550669347</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-14.56799782590237</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-30.43049719192728</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.2039525644661351</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-14.22182091151124</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-29.99256448067305</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.3571071644932127</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-13.90166975655529</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-29.58547902079869</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.4994738093719064</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-13.60406951616383</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-29.21085744270231</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.6304871282686429</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-13.33020202963723</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-28.87117004091098</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.7492832054253151</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-13.08187320830754</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-28.57357974936738</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.8533570069524211</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-12.86431952233488</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-28.32639929641901</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.9398013908336772</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-12.68361800025101</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-28.13340955889834</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1.007294102156055</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-12.54253265591824</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-27.99902434014335</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.054291537832933</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-12.44429020476587</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-27.92829123611968</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.079028443702313</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-12.39258069696971</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-27.92523866819828</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.080095993138659</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-12.39034911407923</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-27.99387738033561</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.056091541693004</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-12.44052751455203</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-28.13747053837979</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.0058738892507</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-12.54550143910759</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-28.36121057918818</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.9276271276376866</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.70906682400325</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-28.67090059351051</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.8193217897238435</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-12.93546602464679</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-29.06948385837966</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.6799285474750768</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-13.22685072671324</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-29.55732846597563</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.5093186710451036</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-13.58349002436601</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-30.12786660225646</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.3097890679423181</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-14.00058251045499</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-30.77032468026858</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.08510749599418078</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-14.47025214325607</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-31.47198706074858</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-0.1602791090134434</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-14.98320314172442</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-32.21420921913401</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-0.4198503510729606</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-15.52580540717392</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-32.97724668669179</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-0.6867011597617908</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-16.08362472561132</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-33.74425154978929</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-0.9549394530148503</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-16.64434441260209</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-34.49756776877805</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-1.218390529511749</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-17.19505700236405</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-35.22408032260132</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-1.47246778096159</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-17.72617474538528</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-35.91635324794539</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-1.714570689161784</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-18.23226157310564</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-36.56638349663683</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-1.9419004139926</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-18.7074668490003</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-37.17296014725878</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-2.154033469880807</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-19.15090532773314</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-37.73816990249701</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-2.35169962216935</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-19.56410249542962</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-38.26032677035946</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-2.534309242765691</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-19.94582580592535</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-38.74326417846224</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-2.703202964735586</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-20.29887769038661</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-39.18797854582294</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-2.85872925749494</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-20.62398658195187</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-39.5877276284746</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-2.998530211594398</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-20.91622355629656</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-39.94113245949869</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-3.122123572291561</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-21.17458051824931</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-40.24518083392935</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-3.228455905954063</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-21.3968553922994</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-40.49337809436681</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-3.315255889543436</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-21.57830025253463</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-40.69076791526778</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-3.384287405784645</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-21.72260228230766</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-40.84364604738342</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-3.437752215732276</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-21.83436399662252</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-40.95771046745007</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-3.477643025858324</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-21.91775090718038</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-41.05244315950291</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-3.51077310997396</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-21.98700533826853</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-41.14272312821451</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-3.542345979830799</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-22.05300460141932</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-41.23866836393074</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-3.575900116854584</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-22.12314546378856</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-41.36039285769338</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-3.61846982146131</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-22.21213227902994</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-41.51676654705699</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-3.673157103853737</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-22.32644942403402</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-41.7063743254437</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-3.739467070464068</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-22.46506238369462</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-41.93419680948813</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-3.819141551324538</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-22.63161224287929</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-42.19157809671047</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-3.909153388956157</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-22.81977109525705</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-42.4616777591234</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-4.00361311918692</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-23.017227728782</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-42.74036787579223</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-4.101077118228395</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-23.22096442264713</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-43.0137733140815</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-4.196692950228011</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-23.42083774699611</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-43.26446694834162</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-4.284365970072729</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-23.60410758385899</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-43.49167089702489</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-4.363824135655972</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-23.7702052621374</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-43.68970774333651</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-4.433081930764756</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-23.91498030049642</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-43.85495066786817</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-4.490870977720096</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-24.03578130891069</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-44.00221867646994</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-4.542373805379607</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-24.14344173671223</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-44.138594195713</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-4.590067292452855</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-24.24313919906516</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-44.26925772133473</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-4.635763171044363</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-24.33866090265886</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-44.41232670519891</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-4.685797508368108</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-24.44325162914582</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-44.57119703237183</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-4.741357919337763</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-24.55939394376528</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-44.74351881515362</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-4.801622597083147</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-24.68536995871894</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-44.93897504213403</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-4.869977893448776</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-24.8282584326854</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-45.15113321325919</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-4.944174223172787</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-24.98335687994349</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-45.37017808831722</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-5.020778983140166</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-25.14348985913147</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-45.59943608832982</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-5.100955495176401</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-25.31108915372792</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-45.82628524236263</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-5.180289581348848</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-25.47692745901547</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-46.03765773717605</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-5.254211142967665</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-25.63145153680502</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-46.23695681432396</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-5.323910367670322</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-25.77714933030352</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-46.41381508865675</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-5.385761555240534</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-25.90644175202966</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-46.56116319594982</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-5.43729239515561</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-26.01416073606113</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-46.68809751363454</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-5.481684088571328</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-26.10695619839122</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-46.78659462806277</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-5.516130673118238</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-26.17896261429404</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-46.85215841501844</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-5.539059756307065</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-26.22689308757846</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-46.89816649768103</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-5.555149784106133</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-26.26052734330591</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-46.91954759866488</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-5.562627220445479</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-26.27615801897434</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-46.91985839044978</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-5.56273591109654</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-26.27638522362548</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-46.9108005714814</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-5.55956819467443</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-26.26976349583583</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-46.89518983958504</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-5.554108781987789</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-26.25835125437067</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-46.86460785683127</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-5.543413597051099</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-26.2359942647057</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-46.84533050553594</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-5.536671887762562</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-26.22190153739146</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-46.79620959051761</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-5.519493234742899</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-26.18599164239738</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-16.79875352533194</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>4.971269997662005</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-4.256320808938823</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-15.28906863168734</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>5.49923966083437</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-3.152664128588049</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-13.86857604882195</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.996016831799981</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-2.114211577947914</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-12.78563199469997</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>6.374745936062911</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-1.322524223315594</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-12.02139059464814</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>6.642017786146567</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-0.7638247688012192</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-11.60341083199435</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>6.788194405804217</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-0.4582602372580675</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-11.49706306095815</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>6.825386535823857</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-0.3805145908396478</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-11.6670160207334</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>6.765950287037485</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-0.5047588753197875</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-12.03548888932997</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>6.637087305669611</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-0.7741313414990447</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-12.5296403400937</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>6.464271788925571</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-1.135381263278287</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-13.0649964762097</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>6.277046096960104</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-1.526753912285064</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-13.56164736924119</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>6.103356470858686</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-1.889831053881883</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-13.95556471384127</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>5.965595002474265</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-2.177804730179572</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-14.20122820492935</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>5.879681133169791</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-2.357397275749203</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-14.27611213809658</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>5.853492592012786</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-2.412141251421789</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-14.18765667431964</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>5.884427392786554</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-2.347475794463243</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-13.97093814352331</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>5.960218579536474</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-2.189043491619065</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-13.6783155017423</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>6.062555085828693</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-1.975121411068968</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-13.37081920677112</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>6.170093232342665</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-1.75032593119319</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-13.10905714365578</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>6.261637122644613</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-1.558964508133434</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-12.9387463915064</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>6.321198499210993</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-1.434458659173486</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-12.88894651745329</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>6.338614598981568</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-1.398052410484959</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-12.97059407032627</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>6.31006067281415</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-1.457740937237728</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-13.17267931124074</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>6.239387066005947</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-1.605475558597767</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-13.47221116581622</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>6.134634257631594</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-1.824448626203957</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-13.83575302122289</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>6.007495758891802</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-2.090216270164459</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-14.22063528815084</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>5.872894053803268</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-2.371584843720298</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-14.58769673689631</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>5.744524676674608</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-2.639925489978721</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-14.90105436496522</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5.634936694413867</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-2.869005903390169</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-15.13074050959412</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>5.55461045088743</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-3.03691819354479</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-15.26077955830197</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.509132965463443</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-3.131983372654054</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-15.28655414348198</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.500119032083579</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-3.15082590942245</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-15.21312819210975</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.525797685276246</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-3.097147792827245</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-15.05735161311585</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.580276145177237</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-2.98326716596759</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-14.84040844376681</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.656145892917935</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-2.824670640880478</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-14.58176268968257</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.746599942130252</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-2.635587398714422</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-14.30019145505291</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.845071530825529</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-2.429744460627245</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-14.00797743236624</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>5.94726513412752</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-2.216121101482577</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-13.71026583540433</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>6.051381358799428</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-1.998478735060212</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-13.4112454872833</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>6.155955282234545</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-1.779879604768936</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-13.11184375929093</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>6.260662582510791</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-1.561001666333965</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-12.81217752830628</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>6.36546238523992</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-1.341930362716874</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-12.51714133339212</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>6.468642963589902</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-1.12624385168861</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-12.23143582298373</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>6.568560398500869</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-0.9173785470792405</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-11.96023152655644</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>6.663406443287037</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-0.7191143697321266</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-11.71188226673322</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>6.750259584369628</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-0.5375583901910135</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-11.4932305487211</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>6.82672684876162</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-0.3777128288621996</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-11.31002170372578</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>6.89079896910248</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-0.2437778159799471</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-11.16922159332456</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>6.940039831997851</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-0.1408457517507753</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-11.07573511151204</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>6.972734089270685</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-0.07250236392909583</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-11.03196300562863</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>6.988042147327631</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-0.04050272130525406</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-11.04059453061598</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>6.98502351518829</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-0.0468128064455385</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-11.10159211951121</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>6.96369133083716</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-0.09140515598345623</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-11.21276263163236</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>6.924812583300906</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-0.1726764721879434</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-11.37345075841833</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>6.868616448245087</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-0.2901476910674309</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-11.58102305352557</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>6.796023899168759</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-0.4418936289881568</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-11.83011036259495</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>6.708912646202331</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-0.6239891601829831</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-12.11832436148084</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>6.60811793827756</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-0.8346882978507859</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-12.44302938071344</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>6.494561526369149</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-1.072064233139072</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-12.79770668084215</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>6.370523155532858</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-1.331351434927799</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-13.17576343175008</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>6.238308481942909</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-1.607730208039819</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-13.56775327621862</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>6.101221102303429</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-1.894294783401606</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-13.96143912923557</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>5.963540591563673</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-2.182099227541479</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-14.34627750907771</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>5.828954234744179</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-2.463435717398501</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-14.70865729758025</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>5.70222213609128</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-2.72835383116422</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-15.0321805021546</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>5.589079030489152</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-2.964865799641953</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-15.30338813986801</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>5.494231817182512</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-3.163132419639689</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-15.50858164733937</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>5.422471181912945</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-3.313139342434451</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-15.63564497955376</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.378034369308405</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-3.406029120967967</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-15.67964830470594</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.362645448841052</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-3.438197796673935</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-15.64028279654876</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.376412423770621</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-3.409419601809581</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-15.52280465295819</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>5.41749708730719</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-3.323537085189882</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-15.33922362046729</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.481699369715319</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-3.189329984259606</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-15.10176906170439</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.564742396731459</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-3.01573858703383</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-14.82441094943313</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.661740564846172</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-2.812975656341275</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-14.52360749267193</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.766938080179248</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-2.593072982661046</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-14.2123386986253</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.875795551722284</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-2.365519613490774</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-13.90273528402672</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.98407060382803</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-2.139183721663552</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-13.60814395526641</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>6.087095602802217</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-1.923822430490517</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-13.3374164504367</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>6.181774903190107</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-1.725906812126816</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-13.09839902604238</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>6.265364498330814</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-1.55117288038813</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-12.89994035067315</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>6.334769816241475</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-1.406089463466573</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-12.74581136628655</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>6.388672076451048</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-1.293413312324004</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-12.63939415172734</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>6.42588849238201</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-1.215616899147306</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-12.58456123565502</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>6.445064756482773</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-1.175531239960353</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-12.57893221000244</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>6.447033349260174</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-1.171416135019258</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-12.61791472022964</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>6.433400317042055</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-1.199914338856497</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-12.69640726585164</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>6.405949765573964</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-1.257296394342478</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-12.8030729743958</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>6.368646445888394</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-1.335274469300166</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-12.92557674840358</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>6.325804210020159</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-1.424830978159092</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-13.05541287020387</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>6.280397692552123</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-1.519747807345738</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-13.18394349220471</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>6.235447736776056</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-1.613710249573281</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-13.30563893886506</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>6.192888190573167</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-1.702675829900917</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-13.42005527313162</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>6.152874308392562</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-1.786320007693337</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-13.5329968355393</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>6.113376186027045</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-1.868886052015061</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-13.64474503141141</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>6.074295409910725</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-1.950579684514525</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-13.78159787564737</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>6.02643499189925</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-2.050626095790054</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-13.94057730841626</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.970836424328179</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-2.166848172166655</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-14.16705739492019</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.891631409102744</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-2.332416670261019</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-14.43577239141679</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.797655926677955</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-2.528861042356401</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-14.83861086164865</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>5.656774546506141</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-2.823356516640684</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>